--- a/medicine/Enfance/Anne_Letuffe/Anne_Letuffe.xlsx
+++ b/medicine/Enfance/Anne_Letuffe/Anne_Letuffe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Letuffe, née en 1973 est une auteure et illustratrice française en littérature jeunesse.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne Letuffe est née à Angoulême. Elle a suivi une formation à l'École supérieure des beaux arts à Toulouse pendant 1 ans. Elle intègre ensuite le Lycée des Arènes à Toulouse où elle suit pendant 4 ans des études d'arts appliqués. Elle a ensuite travaillé dans la publicité, l'édition et la presse[1],[2],[3],[4],[5],[6]. 
-En 2014 : elle a obtenu le Prix Pitchou pour l'album Le tout-petit (l’Atelier du Poisson Soluble). Elle crée à partir de ce livre un jeu-exposition apprécié des médiathèques[7],[8],[9]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Letuffe est née à Angoulême. Elle a suivi une formation à l'École supérieure des beaux arts à Toulouse pendant 1 ans. Elle intègre ensuite le Lycée des Arènes à Toulouse où elle suit pendant 4 ans des études d'arts appliqués. Elle a ensuite travaillé dans la publicité, l'édition et la presse. 
+En 2014 : elle a obtenu le Prix Pitchou pour l'album Le tout-petit (l’Atelier du Poisson Soluble). Elle crée à partir de ce livre un jeu-exposition apprécié des médiathèques. 
 Elle utilise des techniques de découpage, collage, encre de Chine et gravure. Elle s'inspire des artistes Elzbieta, Peter Sís et Binette Schroeder.
-Elle est également invitée dans des maternelles et primaire pour des ateliers artistiques[10].
+Elle est également invitée dans des maternelles et primaire pour des ateliers artistiques.
 </t>
         </is>
       </c>
